--- a/resources/ICCAT_codes.xlsx
+++ b/resources/ICCAT_codes.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rylan/OneDrive - Memorial University of Newfoundland/Memorial University of Newfoundland/Masters/Coursework/FISH 6002/FISH_6002_major_assignment/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_83FA2BB5193699AD97C05234A870271E1E807E02" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="18735" windowHeight="11670"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="18740" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="1" r:id="rId1"/>
@@ -5686,7 +5692,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5924,8 +5930,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Flags" xfId="1"/>
-    <cellStyle name="Normal_Sheet2" xfId="2"/>
+    <cellStyle name="Normal_Flags" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Sheet2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5937,6 +5943,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5985,7 +5994,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6018,9 +6027,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6053,6 +6079,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6228,23 +6271,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -6454,17 +6497,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="12.85546875" style="2"/>
+    <col min="3" max="3" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="12.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -8541,18 +8584,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E488"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -16010,24 +16053,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1640625" style="2"/>
+    <col min="2" max="3" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="2"/>
+    <col min="5" max="5" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -16035,7 +16078,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -16052,7 +16095,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -16069,7 +16112,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -16086,7 +16129,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -16103,7 +16146,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
